--- a/Documents/Forms/Staff/IT FORM.xlsx
+++ b/Documents/Forms/Staff/IT FORM.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="189">
   <si>
     <t>DETAILS</t>
   </si>
@@ -724,13 +724,7 @@
     <t xml:space="preserve"> Gross income</t>
   </si>
   <si>
-    <t>One day salary Arr.</t>
-  </si>
-  <si>
     <t>CAS arr.</t>
-  </si>
-  <si>
-    <t>EL Surrender</t>
   </si>
   <si>
     <t>Rs. 1 / - to 3,00,000 - Nil</t>
@@ -1786,17 +1780,17 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2213,6 +2207,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2222,6 +2219,15 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2259,18 +2265,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2774,8 +2768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL178"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2843,7 +2837,7 @@
     </row>
     <row r="2" spans="1:38">
       <c r="A2" s="124" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B2" s="125"/>
       <c r="C2" s="125"/>
@@ -2898,7 +2892,7 @@
       <c r="F3" s="65"/>
       <c r="G3" s="66"/>
       <c r="H3" s="128" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I3" s="129"/>
       <c r="J3" s="129"/>
@@ -2940,21 +2934,21 @@
       </c>
       <c r="C4" s="129"/>
       <c r="D4" s="129"/>
-      <c r="E4" s="133" t="s">
-        <v>190</v>
-      </c>
-      <c r="F4" s="133"/>
-      <c r="G4" s="133"/>
-      <c r="H4" s="133">
-        <v>0</v>
-      </c>
-      <c r="I4" s="133"/>
-      <c r="J4" s="133"/>
-      <c r="K4" s="133"/>
-      <c r="L4" s="133"/>
-      <c r="M4" s="133"/>
-      <c r="N4" s="133"/>
-      <c r="O4" s="134"/>
+      <c r="E4" s="135" t="s">
+        <v>188</v>
+      </c>
+      <c r="F4" s="135"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="135">
+        <v>0</v>
+      </c>
+      <c r="I4" s="135"/>
+      <c r="J4" s="135"/>
+      <c r="K4" s="135"/>
+      <c r="L4" s="135"/>
+      <c r="M4" s="135"/>
+      <c r="N4" s="135"/>
+      <c r="O4" s="136"/>
       <c r="P4" s="12"/>
       <c r="Q4" s="12"/>
       <c r="R4" s="12"/>
@@ -2983,10 +2977,10 @@
       <c r="A5" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="135" t="s">
-        <v>187</v>
-      </c>
-      <c r="C5" s="136"/>
+      <c r="B5" s="133" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" s="134"/>
       <c r="D5" s="70" t="s">
         <v>135</v>
       </c>
@@ -3103,7 +3097,7 @@
     </row>
     <row r="7" spans="1:38" ht="21.75" customHeight="1">
       <c r="A7" s="52" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B7" s="71">
         <v>0</v>
@@ -3173,7 +3167,7 @@
     </row>
     <row r="8" spans="1:38" ht="18" customHeight="1">
       <c r="A8" s="52" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B8" s="71">
         <v>0</v>
@@ -3243,13 +3237,13 @@
     </row>
     <row r="9" spans="1:38" ht="18" customHeight="1">
       <c r="A9" s="52" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B9" s="71">
         <v>0</v>
       </c>
       <c r="C9" s="53">
-        <f t="shared" ref="C9:C16" si="3">MROUND(((B9)*42%),1)</f>
+        <f t="shared" ref="C9:C14" si="3">MROUND(((B9)*42%),1)</f>
         <v>0</v>
       </c>
       <c r="D9" s="53">
@@ -3313,7 +3307,7 @@
     </row>
     <row r="10" spans="1:38" ht="18" customHeight="1">
       <c r="A10" s="52" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B10" s="71">
         <v>0</v>
@@ -3383,7 +3377,7 @@
     </row>
     <row r="11" spans="1:38" ht="18" customHeight="1">
       <c r="A11" s="52" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B11" s="71">
         <v>0</v>
@@ -3453,7 +3447,7 @@
     </row>
     <row r="12" spans="1:38" ht="18" customHeight="1">
       <c r="A12" s="52" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B12" s="71">
         <v>0</v>
@@ -3523,7 +3517,7 @@
     </row>
     <row r="13" spans="1:38" ht="18" customHeight="1">
       <c r="A13" s="52" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B13" s="71">
         <v>0</v>
@@ -3593,7 +3587,7 @@
     </row>
     <row r="14" spans="1:38" ht="18" customHeight="1">
       <c r="A14" s="52" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B14" s="71">
         <v>0</v>
@@ -3663,13 +3657,13 @@
     </row>
     <row r="15" spans="1:38" ht="18" customHeight="1">
       <c r="A15" s="52" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B15" s="71">
         <v>0</v>
       </c>
       <c r="C15" s="53">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="C15:C18" si="4">MROUND(((B15)*46%),1)</f>
         <v>0</v>
       </c>
       <c r="D15" s="53">
@@ -3733,13 +3727,13 @@
     </row>
     <row r="16" spans="1:38" ht="18" customHeight="1">
       <c r="A16" s="52" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B16" s="71">
         <v>0</v>
       </c>
       <c r="C16" s="53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D16" s="53">
@@ -3803,13 +3797,13 @@
     </row>
     <row r="17" spans="1:38" ht="18" customHeight="1">
       <c r="A17" s="52" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B17" s="71">
         <v>0</v>
       </c>
       <c r="C17" s="53">
-        <f t="shared" ref="C16:C18" si="4">MROUND(((B17)*46%),1)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D17" s="53">
@@ -3873,7 +3867,7 @@
     </row>
     <row r="18" spans="1:38" ht="18" customHeight="1">
       <c r="A18" s="57" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B18" s="71">
         <v>0</v>
@@ -4163,7 +4157,7 @@
     </row>
     <row r="22" spans="1:38" ht="18" customHeight="1">
       <c r="A22" s="120" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="B22" s="121"/>
       <c r="C22" s="121"/>
@@ -4213,7 +4207,7 @@
     </row>
     <row r="23" spans="1:38" ht="18" customHeight="1">
       <c r="A23" s="120" t="s">
-        <v>162</v>
+        <v>110</v>
       </c>
       <c r="B23" s="121"/>
       <c r="C23" s="121"/>
@@ -4264,7 +4258,7 @@
     </row>
     <row r="24" spans="1:38" ht="15" customHeight="1">
       <c r="A24" s="120" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B24" s="121"/>
       <c r="C24" s="121"/>
@@ -7784,8 +7778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W112"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="H114" sqref="H114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
@@ -7864,7 +7858,7 @@
     <row r="4" spans="1:18" ht="13.5" customHeight="1">
       <c r="A4" s="12"/>
       <c r="B4" s="269" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C4" s="269"/>
       <c r="D4" s="269"/>
@@ -7926,15 +7920,15 @@
       <c r="J6" s="253"/>
       <c r="K6" s="253"/>
       <c r="L6" s="15"/>
-      <c r="M6" s="297" t="s">
-        <v>190</v>
-      </c>
-      <c r="N6" s="297"/>
-      <c r="O6" s="297">
+      <c r="M6" s="278" t="s">
+        <v>188</v>
+      </c>
+      <c r="N6" s="278"/>
+      <c r="O6" s="278">
         <f>SALARY!$H$4</f>
         <v>0</v>
       </c>
-      <c r="P6" s="297"/>
+      <c r="P6" s="278"/>
     </row>
     <row r="7" spans="1:18" ht="15" customHeight="1">
       <c r="A7" s="16" t="s">
@@ -7997,7 +7991,7 @@
       </c>
       <c r="B9" s="257"/>
       <c r="C9" s="264" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D9" s="265"/>
       <c r="E9" s="265"/>
@@ -9555,7 +9549,7 @@
         <v>23</v>
       </c>
       <c r="B74" s="168" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C74" s="169"/>
       <c r="D74" s="169"/>
@@ -9690,7 +9684,7 @@
         <v>18</v>
       </c>
       <c r="B80" s="173" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C80" s="174"/>
       <c r="D80" s="174"/>
@@ -9865,7 +9859,7 @@
     <row r="90" spans="1:16" s="106" customFormat="1" ht="11.45" customHeight="1">
       <c r="A90" s="161"/>
       <c r="B90" s="165" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C90" s="166"/>
       <c r="D90" s="166"/>
@@ -9888,7 +9882,7 @@
     <row r="91" spans="1:16" s="106" customFormat="1" ht="11.45" customHeight="1">
       <c r="A91" s="161"/>
       <c r="B91" s="156" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C91" s="156"/>
       <c r="D91" s="156"/>
@@ -9910,7 +9904,7 @@
     <row r="92" spans="1:16" s="106" customFormat="1" ht="11.45" customHeight="1">
       <c r="A92" s="161"/>
       <c r="B92" s="164" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C92" s="164"/>
       <c r="D92" s="164"/>
@@ -9933,7 +9927,7 @@
     <row r="93" spans="1:16" s="106" customFormat="1" ht="11.45" customHeight="1">
       <c r="A93" s="161"/>
       <c r="B93" s="156" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C93" s="156"/>
       <c r="D93" s="156"/>
@@ -9956,7 +9950,7 @@
     <row r="94" spans="1:16" s="106" customFormat="1" ht="11.45" customHeight="1">
       <c r="A94" s="161"/>
       <c r="B94" s="156" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C94" s="156"/>
       <c r="D94" s="156"/>
@@ -9979,7 +9973,7 @@
     <row r="95" spans="1:16" s="106" customFormat="1" ht="11.45" customHeight="1">
       <c r="A95" s="161"/>
       <c r="B95" s="156" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C95" s="156"/>
       <c r="D95" s="156"/>
@@ -10176,7 +10170,7 @@
         <v>6</v>
       </c>
       <c r="B103" s="149" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C103" s="149"/>
       <c r="D103" s="149"/>
@@ -10311,7 +10305,7 @@
         <v>9</v>
       </c>
       <c r="B109" s="146" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C109" s="147"/>
       <c r="D109" s="147"/>
@@ -10569,7 +10563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
       <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
@@ -10649,7 +10643,7 @@
     <row r="4" spans="1:18" ht="13.5" customHeight="1">
       <c r="A4" s="12"/>
       <c r="B4" s="269" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C4" s="269"/>
       <c r="D4" s="269"/>
@@ -10711,15 +10705,15 @@
       <c r="J6" s="253"/>
       <c r="K6" s="253"/>
       <c r="L6" s="15"/>
-      <c r="M6" s="297" t="s">
-        <v>190</v>
-      </c>
-      <c r="N6" s="297"/>
-      <c r="O6" s="297">
+      <c r="M6" s="278" t="s">
+        <v>188</v>
+      </c>
+      <c r="N6" s="278"/>
+      <c r="O6" s="278">
         <f>SALARY!$H$4</f>
         <v>0</v>
       </c>
-      <c r="P6" s="297"/>
+      <c r="P6" s="278"/>
     </row>
     <row r="7" spans="1:18" ht="15" customHeight="1">
       <c r="A7" s="16" t="s">
@@ -10781,18 +10775,18 @@
         <v>22</v>
       </c>
       <c r="B9" s="257"/>
-      <c r="C9" s="294" t="s">
-        <v>184</v>
-      </c>
-      <c r="D9" s="295"/>
-      <c r="E9" s="295"/>
-      <c r="F9" s="295"/>
-      <c r="G9" s="295"/>
-      <c r="H9" s="295"/>
-      <c r="I9" s="295"/>
-      <c r="J9" s="295"/>
-      <c r="K9" s="295"/>
-      <c r="L9" s="296"/>
+      <c r="C9" s="282" t="s">
+        <v>182</v>
+      </c>
+      <c r="D9" s="283"/>
+      <c r="E9" s="283"/>
+      <c r="F9" s="283"/>
+      <c r="G9" s="283"/>
+      <c r="H9" s="283"/>
+      <c r="I9" s="283"/>
+      <c r="J9" s="283"/>
+      <c r="K9" s="283"/>
+      <c r="L9" s="284"/>
       <c r="M9" s="258" t="s">
         <v>73</v>
       </c>
@@ -11926,22 +11920,22 @@
       <c r="A57" s="25">
         <v>11</v>
       </c>
-      <c r="B57" s="278" t="s">
+      <c r="B57" s="279" t="s">
         <v>112</v>
       </c>
-      <c r="C57" s="279"/>
-      <c r="D57" s="279"/>
-      <c r="E57" s="279"/>
-      <c r="F57" s="279"/>
-      <c r="G57" s="279"/>
-      <c r="H57" s="279"/>
-      <c r="I57" s="279"/>
-      <c r="J57" s="279"/>
-      <c r="K57" s="279"/>
-      <c r="L57" s="279"/>
-      <c r="M57" s="279"/>
-      <c r="N57" s="279"/>
-      <c r="O57" s="280"/>
+      <c r="C57" s="280"/>
+      <c r="D57" s="280"/>
+      <c r="E57" s="280"/>
+      <c r="F57" s="280"/>
+      <c r="G57" s="280"/>
+      <c r="H57" s="280"/>
+      <c r="I57" s="280"/>
+      <c r="J57" s="280"/>
+      <c r="K57" s="280"/>
+      <c r="L57" s="280"/>
+      <c r="M57" s="280"/>
+      <c r="N57" s="280"/>
+      <c r="O57" s="281"/>
       <c r="P57" s="95">
         <f>SALARY!$K$21</f>
         <v>3600</v>
@@ -12342,7 +12336,7 @@
         <v>23</v>
       </c>
       <c r="B74" s="168" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C74" s="169"/>
       <c r="D74" s="169"/>
@@ -12477,7 +12471,7 @@
         <v>18</v>
       </c>
       <c r="B80" s="173" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C80" s="174"/>
       <c r="D80" s="174"/>
@@ -12652,7 +12646,7 @@
     <row r="90" spans="1:16" s="106" customFormat="1" ht="12.95" customHeight="1">
       <c r="A90" s="161"/>
       <c r="B90" s="165" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C90" s="166"/>
       <c r="D90" s="166"/>
@@ -12675,7 +12669,7 @@
     <row r="91" spans="1:16" s="106" customFormat="1" ht="12.95" customHeight="1">
       <c r="A91" s="161"/>
       <c r="B91" s="156" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C91" s="156"/>
       <c r="D91" s="156"/>
@@ -12697,7 +12691,7 @@
     <row r="92" spans="1:16" s="106" customFormat="1" ht="12.95" customHeight="1">
       <c r="A92" s="161"/>
       <c r="B92" s="164" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C92" s="164"/>
       <c r="D92" s="164"/>
@@ -12720,7 +12714,7 @@
     <row r="93" spans="1:16" s="106" customFormat="1" ht="12.95" customHeight="1">
       <c r="A93" s="161"/>
       <c r="B93" s="156" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C93" s="156"/>
       <c r="D93" s="156"/>
@@ -12743,7 +12737,7 @@
     <row r="94" spans="1:16" s="106" customFormat="1" ht="12.95" customHeight="1">
       <c r="A94" s="161"/>
       <c r="B94" s="156" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C94" s="156"/>
       <c r="D94" s="156"/>
@@ -12766,7 +12760,7 @@
     <row r="95" spans="1:16" s="106" customFormat="1" ht="12.95" customHeight="1">
       <c r="A95" s="161"/>
       <c r="B95" s="156" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C95" s="156"/>
       <c r="D95" s="156"/>
@@ -12963,7 +12957,7 @@
         <v>6</v>
       </c>
       <c r="B103" s="149" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C103" s="149"/>
       <c r="D103" s="149"/>
@@ -13098,7 +13092,7 @@
         <v>9</v>
       </c>
       <c r="B109" s="146" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C109" s="147"/>
       <c r="D109" s="147"/>
@@ -13147,6 +13141,10 @@
     </row>
   </sheetData>
   <mergeCells count="170">
+    <mergeCell ref="B49:M49"/>
+    <mergeCell ref="A84:P84"/>
+    <mergeCell ref="B37:M37"/>
+    <mergeCell ref="B39:M39"/>
     <mergeCell ref="J74:L74"/>
     <mergeCell ref="C9:L9"/>
     <mergeCell ref="M6:N6"/>
@@ -13157,16 +13155,18 @@
     <mergeCell ref="K68:O68"/>
     <mergeCell ref="B50:M50"/>
     <mergeCell ref="B52:M52"/>
-    <mergeCell ref="A33:A52"/>
-    <mergeCell ref="B40:M40"/>
-    <mergeCell ref="B41:M41"/>
-    <mergeCell ref="B42:M42"/>
-    <mergeCell ref="B43:M43"/>
-    <mergeCell ref="B44:M44"/>
-    <mergeCell ref="A85:P85"/>
-    <mergeCell ref="A86:P86"/>
-    <mergeCell ref="A75:A78"/>
-    <mergeCell ref="B79:I79"/>
+    <mergeCell ref="B32:M32"/>
+    <mergeCell ref="B45:M45"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="B88:P88"/>
+    <mergeCell ref="B90:O90"/>
+    <mergeCell ref="B38:M38"/>
+    <mergeCell ref="B46:M46"/>
+    <mergeCell ref="B47:M47"/>
+    <mergeCell ref="B48:M48"/>
     <mergeCell ref="J79:L79"/>
     <mergeCell ref="M79:N79"/>
     <mergeCell ref="O79:P79"/>
@@ -13176,13 +13176,6 @@
     <mergeCell ref="O80:P80"/>
     <mergeCell ref="B74:I74"/>
     <mergeCell ref="M75:N78"/>
-    <mergeCell ref="B32:M32"/>
-    <mergeCell ref="B33:M33"/>
-    <mergeCell ref="B34:M34"/>
-    <mergeCell ref="B35:M35"/>
-    <mergeCell ref="B37:M37"/>
-    <mergeCell ref="B39:M39"/>
-    <mergeCell ref="B45:M45"/>
     <mergeCell ref="A65:A68"/>
     <mergeCell ref="B65:J68"/>
     <mergeCell ref="K66:O66"/>
@@ -13199,11 +13192,14 @@
     <mergeCell ref="B59:O59"/>
     <mergeCell ref="B63:O63"/>
     <mergeCell ref="B58:O58"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="A33:A52"/>
+    <mergeCell ref="B40:M40"/>
+    <mergeCell ref="B41:M41"/>
+    <mergeCell ref="B42:M42"/>
+    <mergeCell ref="B43:M43"/>
+    <mergeCell ref="B44:M44"/>
+    <mergeCell ref="B33:M33"/>
+    <mergeCell ref="B34:M34"/>
     <mergeCell ref="B27:M27"/>
     <mergeCell ref="E6:K6"/>
     <mergeCell ref="O7:P7"/>
@@ -13220,9 +13216,9 @@
     <mergeCell ref="B28:M28"/>
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="M9:N9"/>
-    <mergeCell ref="B88:P88"/>
-    <mergeCell ref="B90:O90"/>
-    <mergeCell ref="B38:M38"/>
+    <mergeCell ref="B29:M29"/>
+    <mergeCell ref="B30:M30"/>
+    <mergeCell ref="B35:M35"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:P2"/>
     <mergeCell ref="A12:A14"/>
@@ -13242,13 +13238,8 @@
     <mergeCell ref="B17:M17"/>
     <mergeCell ref="B14:M14"/>
     <mergeCell ref="E7:G7"/>
-    <mergeCell ref="B29:M29"/>
-    <mergeCell ref="B30:M30"/>
-    <mergeCell ref="B46:M46"/>
-    <mergeCell ref="B47:M47"/>
-    <mergeCell ref="B48:M48"/>
-    <mergeCell ref="B49:M49"/>
-    <mergeCell ref="A84:P84"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="B105:I105"/>
     <mergeCell ref="O75:P78"/>
     <mergeCell ref="B76:I76"/>
     <mergeCell ref="M74:N74"/>
@@ -13268,6 +13259,11 @@
     <mergeCell ref="O73:P73"/>
     <mergeCell ref="B75:I75"/>
     <mergeCell ref="J75:L78"/>
+    <mergeCell ref="A85:P85"/>
+    <mergeCell ref="A86:P86"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="B79:I79"/>
+    <mergeCell ref="B103:I103"/>
     <mergeCell ref="M102:N102"/>
     <mergeCell ref="M103:N103"/>
     <mergeCell ref="M104:N104"/>
@@ -13290,6 +13286,8 @@
     <mergeCell ref="O104:P104"/>
     <mergeCell ref="O105:P105"/>
     <mergeCell ref="O106:P106"/>
+    <mergeCell ref="B104:I104"/>
+    <mergeCell ref="B106:I106"/>
     <mergeCell ref="O107:P107"/>
     <mergeCell ref="O108:P108"/>
     <mergeCell ref="O109:P109"/>
@@ -13313,10 +13311,6 @@
     <mergeCell ref="B99:O99"/>
     <mergeCell ref="B101:I101"/>
     <mergeCell ref="B102:I102"/>
-    <mergeCell ref="B103:I103"/>
-    <mergeCell ref="B104:I104"/>
-    <mergeCell ref="B105:I105"/>
-    <mergeCell ref="B106:I106"/>
   </mergeCells>
   <pageMargins left="0.43307086614173229" right="0.43307086614173229" top="0.39370078740157483" bottom="0.15748031496062992" header="0.51181102362204722" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13369,26 +13363,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="35.25" customHeight="1">
-      <c r="A1" s="281" t="s">
+      <c r="A1" s="285" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="281"/>
-      <c r="C1" s="281"/>
-      <c r="D1" s="281"/>
-      <c r="E1" s="281"/>
-      <c r="F1" s="281"/>
-      <c r="G1" s="281"/>
+      <c r="B1" s="285"/>
+      <c r="C1" s="285"/>
+      <c r="D1" s="285"/>
+      <c r="E1" s="285"/>
+      <c r="F1" s="285"/>
+      <c r="G1" s="285"/>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="283" t="s">
+      <c r="A2" s="287" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="283"/>
-      <c r="C2" s="283"/>
-      <c r="D2" s="283"/>
-      <c r="E2" s="283"/>
-      <c r="F2" s="283"/>
-      <c r="G2" s="283"/>
+      <c r="B2" s="287"/>
+      <c r="C2" s="287"/>
+      <c r="D2" s="287"/>
+      <c r="E2" s="287"/>
+      <c r="F2" s="287"/>
+      <c r="G2" s="287"/>
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="45.75" customHeight="1">
       <c r="A3" s="2" t="s">
@@ -13514,13 +13508,13 @@
       <c r="G9" s="90"/>
     </row>
     <row r="10" spans="1:10" ht="18" customHeight="1">
-      <c r="A10" s="289" t="s">
+      <c r="A10" s="293" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="290"/>
-      <c r="C10" s="290"/>
-      <c r="D10" s="290"/>
-      <c r="E10" s="291"/>
+      <c r="B10" s="294"/>
+      <c r="C10" s="294"/>
+      <c r="D10" s="294"/>
+      <c r="E10" s="295"/>
       <c r="F10" s="1"/>
       <c r="G10" s="90">
         <f>SUM(G4:G9)</f>
@@ -13528,26 +13522,26 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="33.75" customHeight="1">
-      <c r="A11" s="282" t="s">
+      <c r="A11" s="286" t="s">
         <v>127</v>
       </c>
-      <c r="B11" s="282"/>
-      <c r="C11" s="282"/>
-      <c r="D11" s="282"/>
-      <c r="E11" s="282"/>
-      <c r="F11" s="282"/>
-      <c r="G11" s="282"/>
+      <c r="B11" s="286"/>
+      <c r="C11" s="286"/>
+      <c r="D11" s="286"/>
+      <c r="E11" s="286"/>
+      <c r="F11" s="286"/>
+      <c r="G11" s="286"/>
     </row>
     <row r="12" spans="1:10" ht="18" customHeight="1">
-      <c r="A12" s="283" t="s">
+      <c r="A12" s="287" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="283"/>
-      <c r="C12" s="283"/>
-      <c r="D12" s="283"/>
-      <c r="E12" s="283"/>
-      <c r="F12" s="283"/>
-      <c r="G12" s="283"/>
+      <c r="B12" s="287"/>
+      <c r="C12" s="287"/>
+      <c r="D12" s="287"/>
+      <c r="E12" s="287"/>
+      <c r="F12" s="287"/>
+      <c r="G12" s="287"/>
     </row>
     <row r="14" spans="1:10" ht="18" customHeight="1">
       <c r="A14" s="1" t="s">
@@ -13559,66 +13553,66 @@
       <c r="C14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="284" t="s">
+      <c r="D14" s="288" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="284"/>
-      <c r="F14" s="284" t="s">
+      <c r="E14" s="288"/>
+      <c r="F14" s="288" t="s">
         <v>55</v>
       </c>
-      <c r="G14" s="284"/>
+      <c r="G14" s="288"/>
     </row>
     <row r="15" spans="1:10" ht="18" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="285"/>
-      <c r="E15" s="286"/>
-      <c r="F15" s="287"/>
-      <c r="G15" s="288"/>
+      <c r="D15" s="289"/>
+      <c r="E15" s="290"/>
+      <c r="F15" s="291"/>
+      <c r="G15" s="292"/>
     </row>
     <row r="16" spans="1:10" ht="18" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="285"/>
-      <c r="E16" s="286"/>
-      <c r="F16" s="287"/>
-      <c r="G16" s="288"/>
+      <c r="D16" s="289"/>
+      <c r="E16" s="290"/>
+      <c r="F16" s="291"/>
+      <c r="G16" s="292"/>
     </row>
     <row r="17" spans="1:7" ht="18" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="285"/>
-      <c r="E17" s="286"/>
-      <c r="F17" s="287"/>
-      <c r="G17" s="288"/>
+      <c r="D17" s="289"/>
+      <c r="E17" s="290"/>
+      <c r="F17" s="291"/>
+      <c r="G17" s="292"/>
     </row>
     <row r="18" spans="1:7" ht="18" customHeight="1">
-      <c r="A18" s="289" t="s">
+      <c r="A18" s="293" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="290"/>
-      <c r="C18" s="290"/>
-      <c r="D18" s="290"/>
-      <c r="E18" s="291"/>
-      <c r="F18" s="287">
+      <c r="B18" s="294"/>
+      <c r="C18" s="294"/>
+      <c r="D18" s="294"/>
+      <c r="E18" s="295"/>
+      <c r="F18" s="291">
         <f>SUM(F15:F17)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="288"/>
+      <c r="G18" s="292"/>
     </row>
     <row r="21" spans="1:7" ht="18" customHeight="1">
-      <c r="A21" s="283" t="s">
+      <c r="A21" s="287" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="283"/>
-      <c r="C21" s="283"/>
-      <c r="D21" s="283"/>
-      <c r="E21" s="283"/>
-      <c r="F21" s="283"/>
-      <c r="G21" s="283"/>
+      <c r="B21" s="287"/>
+      <c r="C21" s="287"/>
+      <c r="D21" s="287"/>
+      <c r="E21" s="287"/>
+      <c r="F21" s="287"/>
+      <c r="G21" s="287"/>
     </row>
     <row r="22" spans="1:7" ht="28.5" customHeight="1">
       <c r="A22" s="1" t="s">
@@ -13630,66 +13624,66 @@
       <c r="C22" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="284" t="s">
+      <c r="D22" s="288" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="284"/>
-      <c r="F22" s="284" t="s">
+      <c r="E22" s="288"/>
+      <c r="F22" s="288" t="s">
         <v>59</v>
       </c>
-      <c r="G22" s="284"/>
+      <c r="G22" s="288"/>
     </row>
     <row r="23" spans="1:7" ht="18" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="285"/>
-      <c r="E23" s="286"/>
-      <c r="F23" s="287"/>
-      <c r="G23" s="288"/>
+      <c r="D23" s="289"/>
+      <c r="E23" s="290"/>
+      <c r="F23" s="291"/>
+      <c r="G23" s="292"/>
     </row>
     <row r="24" spans="1:7" ht="18" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="285"/>
-      <c r="E24" s="286"/>
-      <c r="F24" s="287"/>
-      <c r="G24" s="288"/>
+      <c r="D24" s="289"/>
+      <c r="E24" s="290"/>
+      <c r="F24" s="291"/>
+      <c r="G24" s="292"/>
     </row>
     <row r="25" spans="1:7" ht="18" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="285"/>
-      <c r="E25" s="286"/>
-      <c r="F25" s="287"/>
-      <c r="G25" s="288"/>
+      <c r="D25" s="289"/>
+      <c r="E25" s="290"/>
+      <c r="F25" s="291"/>
+      <c r="G25" s="292"/>
     </row>
     <row r="26" spans="1:7" ht="18" customHeight="1">
-      <c r="A26" s="289" t="s">
+      <c r="A26" s="293" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="290"/>
-      <c r="C26" s="290"/>
-      <c r="D26" s="290"/>
-      <c r="E26" s="291"/>
-      <c r="F26" s="287">
+      <c r="B26" s="294"/>
+      <c r="C26" s="294"/>
+      <c r="D26" s="294"/>
+      <c r="E26" s="295"/>
+      <c r="F26" s="291">
         <f>SUM(F23:F25)</f>
         <v>0</v>
       </c>
-      <c r="G26" s="288"/>
+      <c r="G26" s="292"/>
     </row>
     <row r="28" spans="1:7" ht="18" customHeight="1">
-      <c r="A28" s="292" t="s">
+      <c r="A28" s="296" t="s">
         <v>152</v>
       </c>
-      <c r="B28" s="293"/>
-      <c r="C28" s="293"/>
-      <c r="D28" s="293"/>
-      <c r="E28" s="293"/>
-      <c r="F28" s="293"/>
-      <c r="G28" s="293"/>
+      <c r="B28" s="297"/>
+      <c r="C28" s="297"/>
+      <c r="D28" s="297"/>
+      <c r="E28" s="297"/>
+      <c r="F28" s="297"/>
+      <c r="G28" s="297"/>
     </row>
     <row r="29" spans="1:7" ht="18" customHeight="1">
       <c r="A29" s="1" t="s">
@@ -13701,63 +13695,63 @@
       <c r="C29" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="284" t="s">
+      <c r="D29" s="288" t="s">
         <v>62</v>
       </c>
-      <c r="E29" s="284"/>
-      <c r="F29" s="284" t="s">
+      <c r="E29" s="288"/>
+      <c r="F29" s="288" t="s">
         <v>63</v>
       </c>
-      <c r="G29" s="284"/>
+      <c r="G29" s="288"/>
     </row>
     <row r="30" spans="1:7" ht="18" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="285"/>
-      <c r="E30" s="286"/>
-      <c r="F30" s="287"/>
-      <c r="G30" s="288"/>
+      <c r="D30" s="289"/>
+      <c r="E30" s="290"/>
+      <c r="F30" s="291"/>
+      <c r="G30" s="292"/>
     </row>
     <row r="31" spans="1:7" ht="18" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="285"/>
-      <c r="E31" s="286"/>
-      <c r="F31" s="287"/>
-      <c r="G31" s="288"/>
+      <c r="D31" s="289"/>
+      <c r="E31" s="290"/>
+      <c r="F31" s="291"/>
+      <c r="G31" s="292"/>
     </row>
     <row r="32" spans="1:7" ht="18" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="285"/>
-      <c r="E32" s="286"/>
-      <c r="F32" s="287"/>
-      <c r="G32" s="288"/>
+      <c r="D32" s="289"/>
+      <c r="E32" s="290"/>
+      <c r="F32" s="291"/>
+      <c r="G32" s="292"/>
     </row>
     <row r="33" spans="1:7" ht="18" customHeight="1">
-      <c r="A33" s="289" t="s">
+      <c r="A33" s="293" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="290"/>
-      <c r="C33" s="290"/>
-      <c r="D33" s="290"/>
-      <c r="E33" s="291"/>
-      <c r="F33" s="287">
+      <c r="B33" s="294"/>
+      <c r="C33" s="294"/>
+      <c r="D33" s="294"/>
+      <c r="E33" s="295"/>
+      <c r="F33" s="291">
         <f>SUM(F30:F32)</f>
         <v>0</v>
       </c>
-      <c r="G33" s="288"/>
+      <c r="G33" s="292"/>
     </row>
     <row r="37" spans="1:7" ht="18" customHeight="1">
-      <c r="D37" s="293" t="s">
+      <c r="D37" s="297" t="s">
         <v>64</v>
       </c>
-      <c r="E37" s="293"/>
-      <c r="F37" s="293"/>
-      <c r="G37" s="293"/>
+      <c r="E37" s="297"/>
+      <c r="F37" s="297"/>
+      <c r="G37" s="297"/>
     </row>
   </sheetData>
   <mergeCells count="38">
